--- a/SystemTestPlan_v3_executed.xlsx
+++ b/SystemTestPlan_v3_executed.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\My-Python-Hub\GithubRepos\Guru99-SW-Tesing-Project-1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0857505-CA66-4E00-87A0-ACECB9C2C94A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5017115E-383A-4A28-8C9E-92C508BEBDDC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Changelog" sheetId="1" r:id="rId1"/>
@@ -2029,19 +2029,19 @@
   </sheetPr>
   <dimension ref="A1:S108"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B3" sqref="B3"/>
+      <selection pane="bottomLeft" activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="7" customWidth="1"/>
     <col min="2" max="2" width="15.140625" customWidth="1"/>
-    <col min="3" max="3" width="24.5703125" customWidth="1"/>
+    <col min="3" max="3" width="70.28515625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="23.42578125" customWidth="1"/>
     <col min="5" max="5" width="24.7109375" customWidth="1"/>
-    <col min="6" max="6" width="31" customWidth="1"/>
+    <col min="6" max="6" width="49.7109375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="38.5703125" customWidth="1"/>
     <col min="8" max="19" width="15.140625" customWidth="1"/>
   </cols>
@@ -4005,7 +4005,7 @@
   </sheetPr>
   <dimension ref="A1:I19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="D15" sqref="D15"/>
     </sheetView>

--- a/SystemTestPlan_v3_executed.xlsx
+++ b/SystemTestPlan_v3_executed.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\My-Python-Hub\GithubRepos\Guru99-SW-Tesing-Project-1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5017115E-383A-4A28-8C9E-92C508BEBDDC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B00D3F02-F8D3-4750-B8FF-6E9EA3ADE71C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView minimized="1" xWindow="-180" yWindow="-11835" windowWidth="17070" windowHeight="10005" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Changelog" sheetId="1" r:id="rId1"/>
@@ -2029,7 +2029,7 @@
   </sheetPr>
   <dimension ref="A1:S108"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="C13" sqref="C13"/>
     </sheetView>
@@ -2704,7 +2704,7 @@
       <c r="I25" s="14"/>
       <c r="J25" s="4"/>
     </row>
-    <row r="26" spans="1:10" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A26" s="13" t="s">
         <v>149</v>
       </c>
@@ -2756,7 +2756,7 @@
       <c r="I27" s="14"/>
       <c r="J27" s="4"/>
     </row>
-    <row r="28" spans="1:10" ht="51" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:10" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A28" s="13" t="s">
         <v>160</v>
       </c>
@@ -2940,7 +2940,7 @@
       <c r="I34" s="14"/>
       <c r="J34" s="4"/>
     </row>
-    <row r="35" spans="1:19" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:19" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A35" s="13" t="s">
         <v>200</v>
       </c>
@@ -2975,7 +2975,7 @@
       <c r="R35" s="1"/>
       <c r="S35" s="1"/>
     </row>
-    <row r="36" spans="1:19" ht="165.75" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:19" ht="178.5" x14ac:dyDescent="0.2">
       <c r="A36" s="13" t="s">
         <v>206</v>
       </c>
@@ -3258,20 +3258,23 @@
   </sheetPr>
   <dimension ref="A1:I20"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="G13" sqref="G13"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="5.5703125" customWidth="1"/>
-    <col min="2" max="3" width="15.140625" customWidth="1"/>
+    <col min="2" max="2" width="15.140625" customWidth="1"/>
+    <col min="3" max="3" width="35.5703125" customWidth="1"/>
     <col min="4" max="4" width="38.42578125" customWidth="1"/>
     <col min="5" max="5" width="25.42578125" customWidth="1"/>
     <col min="6" max="6" width="21.42578125" customWidth="1"/>
-    <col min="7" max="7" width="26.85546875" customWidth="1"/>
+    <col min="7" max="7" width="41" customWidth="1"/>
     <col min="8" max="19" width="15.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" s="12" t="s">
         <v>9</v>
       </c>
@@ -3298,7 +3301,7 @@
       </c>
       <c r="I1" s="4"/>
     </row>
-    <row r="2" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9" ht="63.75" x14ac:dyDescent="0.2">
       <c r="A2" s="13" t="s">
         <v>211</v>
       </c>
@@ -3325,7 +3328,7 @@
       </c>
       <c r="I2" s="4"/>
     </row>
-    <row r="3" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9" ht="76.5" x14ac:dyDescent="0.2">
       <c r="A3" s="13" t="s">
         <v>212</v>
       </c>
@@ -3350,7 +3353,7 @@
       </c>
       <c r="I3" s="4"/>
     </row>
-    <row r="4" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9" ht="63.75" x14ac:dyDescent="0.2">
       <c r="A4" s="13" t="s">
         <v>213</v>
       </c>
@@ -3375,7 +3378,7 @@
       </c>
       <c r="I4" s="4"/>
     </row>
-    <row r="5" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A5" s="13" t="s">
         <v>215</v>
       </c>
@@ -3402,7 +3405,7 @@
       </c>
       <c r="I5" s="4"/>
     </row>
-    <row r="6" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:9" ht="52.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="13" t="s">
         <v>220</v>
       </c>
@@ -3429,7 +3432,7 @@
       </c>
       <c r="I6" s="4"/>
     </row>
-    <row r="7" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:9" ht="52.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="13" t="s">
         <v>226</v>
       </c>
@@ -3456,7 +3459,7 @@
       </c>
       <c r="I7" s="4"/>
     </row>
-    <row r="8" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:9" ht="111.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="13" t="s">
         <v>231</v>
       </c>
@@ -3483,7 +3486,7 @@
       </c>
       <c r="I8" s="4"/>
     </row>
-    <row r="9" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:9" ht="51" x14ac:dyDescent="0.2">
       <c r="A9" s="13" t="s">
         <v>236</v>
       </c>
@@ -3510,7 +3513,7 @@
       </c>
       <c r="I9" s="4"/>
     </row>
-    <row r="10" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:9" ht="51" x14ac:dyDescent="0.2">
       <c r="A10" s="13" t="s">
         <v>241</v>
       </c>
@@ -3533,7 +3536,7 @@
       </c>
       <c r="I10" s="4"/>
     </row>
-    <row r="11" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:9" ht="93" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="13" t="s">
         <v>246</v>
       </c>
@@ -3558,7 +3561,7 @@
       </c>
       <c r="I11" s="4"/>
     </row>
-    <row r="12" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:9" ht="63.75" x14ac:dyDescent="0.2">
       <c r="A12" s="13" t="s">
         <v>251</v>
       </c>
@@ -3583,7 +3586,7 @@
       </c>
       <c r="I12" s="4"/>
     </row>
-    <row r="13" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:9" ht="76.5" x14ac:dyDescent="0.2">
       <c r="A13" s="13" t="s">
         <v>257</v>
       </c>
@@ -3608,7 +3611,7 @@
       </c>
       <c r="I13" s="4"/>
     </row>
-    <row r="14" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:9" ht="63.75" x14ac:dyDescent="0.2">
       <c r="A14" s="13" t="s">
         <v>263</v>
       </c>
@@ -3633,7 +3636,7 @@
       </c>
       <c r="I14" s="4"/>
     </row>
-    <row r="15" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:9" ht="76.5" x14ac:dyDescent="0.2">
       <c r="A15" s="13" t="s">
         <v>268</v>
       </c>
